--- a/src/main/resources/excel/excel-sample.xlsx
+++ b/src/main/resources/excel/excel-sample.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barongun/dev/workspace/java/jxsl/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\wendyProject\excel-loader\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9462FF-4570-7940-85C4-9D7BCBF3DDB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="4160" windowWidth="28240" windowHeight="17440" xr2:uid="{F25FE3FB-267D-CA4D-8D17-F3F51CACBD9D}"/>
+    <workbookView xWindow="10164" yWindow="4164" windowWidth="28236" windowHeight="17436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,11 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>&lt;jx:forEach items="${list}" var="item"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,27 +42,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${list2}" var="item"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${item.age}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ALARM 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.전체 호 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${alarmHostList}" var="item"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${totalCallHostList}" var="item"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,7 +132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,6 +140,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,53 +461,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD57DF4-EEBC-8947-B1D8-8716748082BA}">
-  <dimension ref="B4:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G21:G22"/>
+      <selection activeCell="C4" sqref="C4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="2" max="5" width="20.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>1</v>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/excel-sample.xlsx
+++ b/src/main/resources/excel/excel-sample.xlsx
@@ -32,28 +32,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${item.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.age}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.ALARM 현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +55,82 @@
   </si>
   <si>
     <t>&lt;jx:forEach items="${totalCallHostList}" var="item"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.alarmHost}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.alarmCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 시도 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.alarmMessage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.alarmMessage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.date}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.totalTryCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.successCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.failCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.successRate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.failRate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,9 +200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -146,6 +207,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,67 +526,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B13"/>
+  <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="5" width="20.6328125" customWidth="1"/>
+    <col min="2" max="7" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
